--- a/faq.xlsx
+++ b/faq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MA1PEPF00008872\EXCELCNV\e4993c24-9b8f-40a7-8194-487579719dc5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Alpharithm - Internship\Projects\RAG Prototype- Chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DBE7C2C-04B0-499F-9B92-753421156579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCED687-DFE1-4CDB-AFA6-6F63A5FF0287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{4FB724B4-0C90-4B4C-BDCD-BE5105B6A85F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FB724B4-0C90-4B4C-BDCD-BE5105B6A85F}"/>
   </bookViews>
   <sheets>
     <sheet name="English Translation" sheetId="1" r:id="rId1"/>
@@ -2369,6 +2369,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2511,38 +2512,45 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2560,6 +2568,7 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -3139,13 +3148,19 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3154,19 +3169,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3378,7 +3387,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B58A5FD-2599-435D-ABFA-EEBA869FEDB9}" name="Table1" displayName="Table1" ref="A1:D151" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:D151" xr:uid="{1B58A5FD-2599-435D-ABFA-EEBA869FEDB9}"/>
+  <autoFilter ref="A1:D151" xr:uid="{1B58A5FD-2599-435D-ABFA-EEBA869FEDB9}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hospital Related"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B490805B-034D-465D-A09C-150B58BFE5C4}" name="SL" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{1282352C-7262-4990-BE05-73E900D1965B}" name="Area" dataDxfId="44"/>
@@ -3760,18 +3775,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9560B8CB-FA5F-43C0-B0B9-A0D6F11C3928}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="77.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="9"/>
+    <col min="2" max="2" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="77.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1">
@@ -3788,7 +3803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="76.5">
+    <row r="2" spans="1:4" ht="72">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3802,7 +3817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75">
+    <row r="3" spans="1:4" ht="43.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3816,7 +3831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30.75">
+    <row r="4" spans="1:4" ht="28.8">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3830,7 +3845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30.75">
+    <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3844,7 +3859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30.75">
+    <row r="6" spans="1:4" ht="28.8">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3858,7 +3873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30.75">
+    <row r="7" spans="1:4" ht="28.8">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3872,7 +3887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="76.5">
+    <row r="8" spans="1:4" ht="72">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3886,7 +3901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30.75">
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3900,7 +3915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30.75">
+    <row r="10" spans="1:4" ht="28.8">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3914,7 +3929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30.75">
+    <row r="11" spans="1:4" ht="28.8">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3928,7 +3943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="91.5">
+    <row r="12" spans="1:4" ht="86.4">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3942,7 +3957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60.75">
+    <row r="13" spans="1:4" ht="57.6">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3956,7 +3971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45.75">
+    <row r="14" spans="1:4" ht="43.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3984,7 +3999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45.75">
+    <row r="16" spans="1:4" ht="43.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30.75">
+    <row r="17" spans="1:4">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -4012,7 +4027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30.75">
+    <row r="18" spans="1:4" ht="28.8">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -4026,7 +4041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60.75">
+    <row r="19" spans="1:4" ht="57.6">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -4040,7 +4055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30.75">
+    <row r="20" spans="1:4" ht="28.8">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -4054,7 +4069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="91.5">
+    <row r="21" spans="1:4" ht="72">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -4068,7 +4083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="76.5">
+    <row r="22" spans="1:4" ht="72">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -4082,7 +4097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30.75">
+    <row r="23" spans="1:4" ht="28.8">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -4096,7 +4111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30.75">
+    <row r="24" spans="1:4" ht="28.8">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -4110,7 +4125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30.75">
+    <row r="25" spans="1:4" ht="28.8">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -4124,7 +4139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30.75">
+    <row r="26" spans="1:4" ht="28.8">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -4138,7 +4153,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45.75">
+    <row r="27" spans="1:4" ht="43.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30.75">
+    <row r="28" spans="1:4" ht="28.8">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -4166,7 +4181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30.75">
+    <row r="29" spans="1:4" ht="28.8">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -4180,7 +4195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30.75">
+    <row r="30" spans="1:4" ht="28.8">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -4194,7 +4209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30.75">
+    <row r="31" spans="1:4" ht="28.8">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -4222,7 +4237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30.75">
+    <row r="33" spans="1:4" ht="28.8">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -4236,7 +4251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45.75">
+    <row r="34" spans="1:4" ht="43.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -4250,7 +4265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30.75">
+    <row r="35" spans="1:4" ht="28.8">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -4264,7 +4279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30.75">
+    <row r="36" spans="1:4" ht="28.8">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -4278,7 +4293,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30.75">
+    <row r="37" spans="1:4" ht="28.8">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -4292,7 +4307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30.75">
+    <row r="38" spans="1:4" ht="28.8">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -4306,7 +4321,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30.75">
+    <row r="39" spans="1:4" ht="28.8">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -4320,7 +4335,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30.75">
+    <row r="40" spans="1:4" ht="28.8">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -4334,7 +4349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30.75">
+    <row r="41" spans="1:4" ht="28.8">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -4348,7 +4363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45.75">
+    <row r="42" spans="1:4" ht="43.2">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -4362,7 +4377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30.75">
+    <row r="43" spans="1:4" ht="28.8">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -4376,7 +4391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30.75">
+    <row r="44" spans="1:4" ht="28.8">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -4390,7 +4405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30.75">
+    <row r="45" spans="1:4" ht="28.8">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -4404,7 +4419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30.75">
+    <row r="46" spans="1:4" ht="28.8">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -4418,7 +4433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60.75">
+    <row r="47" spans="1:4" ht="57.6">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -4432,7 +4447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45.75">
+    <row r="48" spans="1:4" ht="43.2">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -4460,7 +4475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30.75">
+    <row r="50" spans="1:4" ht="28.8">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -4474,7 +4489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30.75">
+    <row r="51" spans="1:4" ht="28.8" hidden="1">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -4488,7 +4503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30.75">
+    <row r="52" spans="1:4" ht="28.8" hidden="1">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -4502,7 +4517,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30.75">
+    <row r="53" spans="1:4" ht="28.8" hidden="1">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30.75">
+    <row r="54" spans="1:4" ht="28.8" hidden="1">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -4530,7 +4545,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30.75">
+    <row r="55" spans="1:4" ht="28.8" hidden="1">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -4544,7 +4559,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45.75">
+    <row r="56" spans="1:4" ht="43.2" hidden="1">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -4558,7 +4573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="106.5">
+    <row r="57" spans="1:4" ht="100.8" hidden="1">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -4572,7 +4587,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30.75">
+    <row r="58" spans="1:4" ht="28.8" hidden="1">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -4586,7 +4601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -4600,7 +4615,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30.75">
+    <row r="60" spans="1:4" ht="28.8" hidden="1">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -4614,7 +4629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45.75">
+    <row r="61" spans="1:4" ht="43.2" hidden="1">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -4628,7 +4643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30.75">
+    <row r="62" spans="1:4" ht="28.8" hidden="1">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -4642,7 +4657,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="137.25">
+    <row r="63" spans="1:4" ht="115.2" hidden="1">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="152.25">
+    <row r="64" spans="1:4" ht="129.6" hidden="1">
       <c r="A64" s="9">
         <v>2</v>
       </c>
@@ -4670,7 +4685,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="45.75">
+    <row r="65" spans="1:4" ht="43.2" hidden="1">
       <c r="A65" s="9">
         <v>3</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="91.5">
+    <row r="66" spans="1:4" ht="72" hidden="1">
       <c r="A66" s="9">
         <v>4</v>
       </c>
@@ -4698,7 +4713,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="76.5">
+    <row r="67" spans="1:4" ht="72" hidden="1">
       <c r="A67" s="9">
         <v>5</v>
       </c>
@@ -4712,7 +4727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30.75">
+    <row r="68" spans="1:4" ht="28.8" hidden="1">
       <c r="A68" s="9">
         <v>6</v>
       </c>
@@ -4726,7 +4741,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30.75">
+    <row r="69" spans="1:4" ht="28.8" hidden="1">
       <c r="A69" s="9">
         <v>7</v>
       </c>
@@ -4740,7 +4755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="45.75">
+    <row r="70" spans="1:4" ht="43.2" hidden="1">
       <c r="A70" s="9">
         <v>8</v>
       </c>
@@ -4754,7 +4769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45.75">
+    <row r="71" spans="1:4" ht="43.2" hidden="1">
       <c r="A71" s="9">
         <v>9</v>
       </c>
@@ -4768,7 +4783,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30.75">
+    <row r="72" spans="1:4" ht="28.8" hidden="1">
       <c r="A72" s="9">
         <v>10</v>
       </c>
@@ -4782,7 +4797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="30.75">
+    <row r="73" spans="1:4" ht="28.8" hidden="1">
       <c r="A73" s="9">
         <v>11</v>
       </c>
@@ -4796,7 +4811,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30.75">
+    <row r="74" spans="1:4" ht="28.8" hidden="1">
       <c r="A74" s="9">
         <v>12</v>
       </c>
@@ -4810,7 +4825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30.75">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" s="9">
         <v>13</v>
       </c>
@@ -4824,7 +4839,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45.75">
+    <row r="76" spans="1:4" ht="43.2" hidden="1">
       <c r="A76" s="9">
         <v>14</v>
       </c>
@@ -4838,7 +4853,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30.75">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="9">
         <v>15</v>
       </c>
@@ -4852,7 +4867,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="76.5">
+    <row r="78" spans="1:4" ht="72" hidden="1">
       <c r="A78" s="9">
         <v>16</v>
       </c>
@@ -4866,7 +4881,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="45.75">
+    <row r="79" spans="1:4" ht="43.2" hidden="1">
       <c r="A79" s="9">
         <v>17</v>
       </c>
@@ -4880,7 +4895,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="45.75">
+    <row r="80" spans="1:4" ht="43.2" hidden="1">
       <c r="A80" s="9">
         <v>18</v>
       </c>
@@ -4894,7 +4909,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30.75">
+    <row r="81" spans="1:4" ht="28.8" hidden="1">
       <c r="A81" s="9">
         <v>19</v>
       </c>
@@ -4908,7 +4923,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="152.25">
+    <row r="82" spans="1:4" ht="129.6" hidden="1">
       <c r="A82" s="9">
         <v>1</v>
       </c>
@@ -4922,7 +4937,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="152.25">
+    <row r="83" spans="1:4" ht="129.6" hidden="1">
       <c r="A83" s="9">
         <v>2</v>
       </c>
@@ -4936,7 +4951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="106.5">
+    <row r="84" spans="1:4" ht="100.8" hidden="1">
       <c r="A84" s="9">
         <v>3</v>
       </c>
@@ -4950,7 +4965,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30.75">
+    <row r="85" spans="1:4" ht="28.8" hidden="1">
       <c r="A85" s="9">
         <v>4</v>
       </c>
@@ -4964,7 +4979,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="45.75">
+    <row r="86" spans="1:4" ht="43.2" hidden="1">
       <c r="A86" s="9">
         <v>5</v>
       </c>
@@ -4978,7 +4993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="60.75">
+    <row r="87" spans="1:4" ht="43.2" hidden="1">
       <c r="A87" s="9">
         <v>6</v>
       </c>
@@ -4992,7 +5007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30.75">
+    <row r="88" spans="1:4" ht="28.8" hidden="1">
       <c r="A88" s="9">
         <v>7</v>
       </c>
@@ -5006,7 +5021,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30.75">
+    <row r="89" spans="1:4" ht="28.8" hidden="1">
       <c r="A89" s="9">
         <v>8</v>
       </c>
@@ -5020,7 +5035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30.75">
+    <row r="90" spans="1:4" ht="28.8" hidden="1">
       <c r="A90" s="9">
         <v>9</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="45.75">
+    <row r="91" spans="1:4" ht="28.8" hidden="1">
       <c r="A91" s="9">
         <v>10</v>
       </c>
@@ -5048,7 +5063,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30.75">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" s="9">
         <v>11</v>
       </c>
@@ -5062,7 +5077,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30.75">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="9">
         <v>12</v>
       </c>
@@ -5076,7 +5091,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30.75">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" s="9">
         <v>13</v>
       </c>
@@ -5090,7 +5105,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30.75">
+    <row r="95" spans="1:4" ht="28.8" hidden="1">
       <c r="A95" s="9">
         <v>14</v>
       </c>
@@ -5104,7 +5119,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30.75">
+    <row r="96" spans="1:4" ht="28.8" hidden="1">
       <c r="A96" s="9">
         <v>15</v>
       </c>
@@ -5118,7 +5133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30.75">
+    <row r="97" spans="1:4" ht="28.8" hidden="1">
       <c r="A97" s="9">
         <v>16</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30.75">
+    <row r="98" spans="1:4" ht="28.8" hidden="1">
       <c r="A98" s="9">
         <v>17</v>
       </c>
@@ -5146,7 +5161,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30.75">
+    <row r="99" spans="1:4" ht="28.8" hidden="1">
       <c r="A99" s="9">
         <v>18</v>
       </c>
@@ -5160,7 +5175,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="45.75">
+    <row r="100" spans="1:4" ht="43.2" hidden="1">
       <c r="A100" s="9">
         <v>19</v>
       </c>
@@ -5174,7 +5189,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30.75">
+    <row r="101" spans="1:4" ht="28.8" hidden="1">
       <c r="A101" s="9">
         <v>20</v>
       </c>
@@ -5188,7 +5203,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45.75">
+    <row r="102" spans="1:4" ht="43.2" hidden="1">
       <c r="A102" s="9">
         <v>21</v>
       </c>
@@ -5202,7 +5217,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="45.75">
+    <row r="103" spans="1:4" ht="43.2" hidden="1">
       <c r="A103" s="9">
         <v>22</v>
       </c>
@@ -5216,7 +5231,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30.75">
+    <row r="104" spans="1:4" ht="28.8" hidden="1">
       <c r="A104" s="9">
         <v>23</v>
       </c>
@@ -5230,7 +5245,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45.75">
+    <row r="105" spans="1:4" ht="43.2" hidden="1">
       <c r="A105" s="9">
         <v>24</v>
       </c>
@@ -5244,7 +5259,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30.75">
+    <row r="106" spans="1:4" ht="28.8" hidden="1">
       <c r="A106" s="9">
         <v>25</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30.75">
+    <row r="107" spans="1:4" ht="28.8" hidden="1">
       <c r="A107" s="9">
         <v>26</v>
       </c>
@@ -5272,7 +5287,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30.75">
+    <row r="108" spans="1:4" ht="28.8" hidden="1">
       <c r="A108" s="9">
         <v>27</v>
       </c>
@@ -5286,7 +5301,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30.75">
+    <row r="109" spans="1:4" ht="28.8" hidden="1">
       <c r="A109" s="9">
         <v>28</v>
       </c>
@@ -5300,7 +5315,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30.75">
+    <row r="110" spans="1:4" ht="28.8" hidden="1">
       <c r="A110" s="9">
         <v>29</v>
       </c>
@@ -5314,7 +5329,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="30.75">
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" s="9">
         <v>30</v>
       </c>
@@ -5328,7 +5343,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30.75">
+    <row r="112" spans="1:4" ht="28.8" hidden="1">
       <c r="A112" s="9">
         <v>31</v>
       </c>
@@ -5342,7 +5357,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30.75">
+    <row r="113" spans="1:4" ht="28.8" hidden="1">
       <c r="A113" s="9">
         <v>32</v>
       </c>
@@ -5356,7 +5371,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="30.75">
+    <row r="114" spans="1:4" ht="28.8" hidden="1">
       <c r="A114" s="9">
         <v>33</v>
       </c>
@@ -5370,7 +5385,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="106.5">
+    <row r="115" spans="1:4" ht="100.8" hidden="1">
       <c r="A115" s="9">
         <v>34</v>
       </c>
@@ -5384,7 +5399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="91.5">
+    <row r="116" spans="1:4" ht="86.4" hidden="1">
       <c r="A116" s="9">
         <v>35</v>
       </c>
@@ -5398,7 +5413,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" s="9">
         <v>36</v>
       </c>
@@ -5412,7 +5427,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="62.25">
+    <row r="118" spans="1:4" ht="43.2" hidden="1">
       <c r="A118" s="9">
         <v>37</v>
       </c>
@@ -5426,7 +5441,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="45.75">
+    <row r="119" spans="1:4" ht="28.8" hidden="1">
       <c r="A119" s="9">
         <v>38</v>
       </c>
@@ -5440,7 +5455,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45.75">
+    <row r="120" spans="1:4" ht="43.2" hidden="1">
       <c r="A120" s="9">
         <v>39</v>
       </c>
@@ -5454,7 +5469,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30.75">
+    <row r="121" spans="1:4" ht="28.8" hidden="1">
       <c r="A121" s="9">
         <v>40</v>
       </c>
@@ -5468,7 +5483,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="45.75">
+    <row r="122" spans="1:4" ht="43.2" hidden="1">
       <c r="A122" s="9">
         <v>41</v>
       </c>
@@ -5482,7 +5497,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="45.75">
+    <row r="123" spans="1:4" ht="28.8" hidden="1">
       <c r="A123" s="9">
         <v>42</v>
       </c>
@@ -5496,7 +5511,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30.75">
+    <row r="124" spans="1:4" ht="28.8" hidden="1">
       <c r="A124" s="9">
         <v>43</v>
       </c>
@@ -5510,7 +5525,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="30.75">
+    <row r="125" spans="1:4" ht="28.8" hidden="1">
       <c r="A125" s="9">
         <v>44</v>
       </c>
@@ -5524,7 +5539,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="45.75">
+    <row r="126" spans="1:4" ht="28.8" hidden="1">
       <c r="A126" s="9">
         <v>45</v>
       </c>
@@ -5538,7 +5553,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="30.75">
+    <row r="127" spans="1:4" ht="28.8" hidden="1">
       <c r="A127" s="9">
         <v>46</v>
       </c>
@@ -5552,7 +5567,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30.75">
+    <row r="128" spans="1:4" ht="28.8" hidden="1">
       <c r="A128" s="9">
         <v>47</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30.75">
+    <row r="129" spans="1:4" ht="28.8" hidden="1">
       <c r="A129" s="9">
         <v>48</v>
       </c>
@@ -5580,7 +5595,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="30.75">
+    <row r="130" spans="1:4" ht="28.8" hidden="1">
       <c r="A130" s="9">
         <v>49</v>
       </c>
@@ -5594,7 +5609,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="45.75">
+    <row r="131" spans="1:4" ht="43.2" hidden="1">
       <c r="A131" s="9">
         <v>50</v>
       </c>
@@ -5608,7 +5623,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="30.75">
+    <row r="132" spans="1:4" ht="28.8" hidden="1">
       <c r="A132" s="9">
         <v>51</v>
       </c>
@@ -5622,7 +5637,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="45.75">
+    <row r="133" spans="1:4" ht="28.8" hidden="1">
       <c r="A133" s="9">
         <v>52</v>
       </c>
@@ -5636,7 +5651,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="60.75">
+    <row r="134" spans="1:4" ht="57.6" hidden="1">
       <c r="A134" s="9">
         <v>53</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="91.5">
+    <row r="135" spans="1:4" ht="72" hidden="1">
       <c r="A135" s="9">
         <v>54</v>
       </c>
@@ -5664,7 +5679,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30.75">
+    <row r="136" spans="1:4" ht="28.8" hidden="1">
       <c r="A136" s="9">
         <v>55</v>
       </c>
@@ -5678,7 +5693,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30.75">
+    <row r="137" spans="1:4" ht="28.8" hidden="1">
       <c r="A137" s="9">
         <v>56</v>
       </c>
@@ -5692,7 +5707,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="45.75">
+    <row r="138" spans="1:4" ht="43.2" hidden="1">
       <c r="A138" s="9">
         <v>57</v>
       </c>
@@ -5706,7 +5721,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="45.75">
+    <row r="139" spans="1:4" ht="43.2" hidden="1">
       <c r="A139" s="9">
         <v>58</v>
       </c>
@@ -5720,7 +5735,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="121.5">
+    <row r="140" spans="1:4" ht="115.2" hidden="1">
       <c r="A140" s="9">
         <v>59</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="45.75">
+    <row r="141" spans="1:4" ht="43.2" hidden="1">
       <c r="A141" s="9">
         <v>60</v>
       </c>
@@ -5748,7 +5763,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="30.75">
+    <row r="142" spans="1:4" ht="28.8" hidden="1">
       <c r="A142" s="9">
         <v>61</v>
       </c>
@@ -5762,7 +5777,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="30.75">
+    <row r="143" spans="1:4" ht="28.8" hidden="1">
       <c r="A143" s="9">
         <v>62</v>
       </c>
@@ -5776,7 +5791,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="91.5">
+    <row r="144" spans="1:4" ht="86.4" hidden="1">
       <c r="A144" s="9">
         <v>63</v>
       </c>
@@ -5790,7 +5805,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30.75">
+    <row r="145" spans="1:4" ht="28.8" hidden="1">
       <c r="A145" s="9">
         <v>64</v>
       </c>
@@ -5804,7 +5819,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="45.75">
+    <row r="146" spans="1:4" ht="43.2" hidden="1">
       <c r="A146" s="9">
         <v>65</v>
       </c>
@@ -5818,7 +5833,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="30.75">
+    <row r="147" spans="1:4" ht="28.8" hidden="1">
       <c r="A147" s="9">
         <v>66</v>
       </c>
@@ -5832,7 +5847,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="30.75">
+    <row r="148" spans="1:4" ht="28.8" hidden="1">
       <c r="A148" s="9">
         <v>67</v>
       </c>
@@ -5846,7 +5861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="45.75">
+    <row r="149" spans="1:4" ht="43.2" hidden="1">
       <c r="A149" s="9">
         <v>68</v>
       </c>
@@ -5860,7 +5875,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="30.75">
+    <row r="150" spans="1:4" ht="28.8" hidden="1">
       <c r="A150" s="9">
         <v>69</v>
       </c>
@@ -5874,7 +5889,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="30.75">
+    <row r="151" spans="1:4" ht="28.8" hidden="1">
       <c r="A151" s="9">
         <v>70</v>
       </c>
@@ -5914,7 +5929,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -7201,17 +7216,17 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" style="25" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="25" customWidth="1"/>
-    <col min="5" max="23" width="8.7109375" style="25" customWidth="1"/>
-    <col min="24" max="16384" width="14.42578125" style="25"/>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="24" customWidth="1"/>
+    <col min="5" max="23" width="8.6640625" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="14.44140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
+    <row r="1" spans="1:23" ht="18">
       <c r="A1" s="22" t="s">
         <v>307</v>
       </c>
@@ -7221,7 +7236,7 @@
       <c r="C1" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="31" t="s">
         <v>310</v>
       </c>
       <c r="E1" s="21"/>
@@ -7244,13 +7259,13 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:23" ht="15.6">
+      <c r="A2" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -7271,8 +7286,8 @@
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
     </row>
-    <row r="3" spans="1:23" ht="151.5">
-      <c r="A3" s="30">
+    <row r="3" spans="1:23" ht="144">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -7304,8 +7319,8 @@
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
     </row>
-    <row r="4" spans="1:23" ht="166.5">
-      <c r="A4" s="30">
+    <row r="4" spans="1:23" ht="201.6">
+      <c r="A4" s="25">
         <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>2</v>
       </c>
@@ -7338,8 +7353,8 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" spans="1:23" ht="150">
-      <c r="A5" s="30">
+    <row r="5" spans="1:23" ht="129.6">
+      <c r="A5" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7372,8 +7387,8 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
-    <row r="6" spans="1:23" ht="147">
-      <c r="A6" s="30">
+    <row r="6" spans="1:23" ht="158.4">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7406,8 +7421,8 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
     </row>
-    <row r="7" spans="1:23" ht="97.5">
-      <c r="A7" s="30">
+    <row r="7" spans="1:23" ht="110.4">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7440,8 +7455,8 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" spans="1:23" ht="81">
-      <c r="A8" s="30">
+    <row r="8" spans="1:23" ht="86.4">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7474,8 +7489,8 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5">
-      <c r="A9" s="30">
+    <row r="9" spans="1:23" ht="28.8">
+      <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -7508,8 +7523,8 @@
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
     </row>
-    <row r="10" spans="1:23" ht="110.25">
-      <c r="A10" s="30">
+    <row r="10" spans="1:23" ht="115.2">
+      <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7542,8 +7557,8 @@
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
     </row>
-    <row r="11" spans="1:23" ht="33">
-      <c r="A11" s="30">
+    <row r="11" spans="1:23" ht="55.2">
+      <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -7576,8 +7591,8 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
     </row>
-    <row r="12" spans="1:23" ht="33">
-      <c r="A12" s="30">
+    <row r="12" spans="1:23" ht="28.8">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7610,8 +7625,8 @@
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
     </row>
-    <row r="13" spans="1:23" ht="16.5">
-      <c r="A13" s="30">
+    <row r="13" spans="1:23">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -7644,8 +7659,8 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
     </row>
-    <row r="14" spans="1:23" ht="16.5">
-      <c r="A14" s="30">
+    <row r="14" spans="1:23" ht="27.6">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -7678,8 +7693,8 @@
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
     </row>
-    <row r="15" spans="1:23" ht="16.5">
-      <c r="A15" s="30">
+    <row r="15" spans="1:23">
+      <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -7712,8 +7727,8 @@
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
     </row>
-    <row r="16" spans="1:23" ht="33">
-      <c r="A16" s="30">
+    <row r="16" spans="1:23" ht="28.8">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7746,8 +7761,8 @@
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
-      <c r="A17" s="30">
+    <row r="17" spans="1:23">
+      <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7780,8 +7795,8 @@
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
     </row>
-    <row r="18" spans="1:23" ht="117">
-      <c r="A18" s="30">
+    <row r="18" spans="1:23" ht="115.2">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -7814,8 +7829,8 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="1:23" ht="82.5">
-      <c r="A19" s="30">
+    <row r="19" spans="1:23" ht="86.4">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -7848,8 +7863,8 @@
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
     </row>
-    <row r="20" spans="1:23" ht="82.5">
-      <c r="A20" s="30">
+    <row r="20" spans="1:23" ht="72">
+      <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -7882,8 +7897,8 @@
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
-      <c r="A21" s="30">
+    <row r="21" spans="1:23">
+      <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -7917,12 +7932,12 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -7943,8 +7958,8 @@
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
     </row>
-    <row r="23" spans="1:23" ht="180.75">
-      <c r="A23" s="30">
+    <row r="23" spans="1:23" ht="230.4">
+      <c r="A23" s="25">
         <v>1</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -7976,8 +7991,8 @@
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
     </row>
-    <row r="24" spans="1:23" ht="180.75">
-      <c r="A24" s="30">
+    <row r="24" spans="1:23" ht="230.4">
+      <c r="A24" s="25">
         <f t="shared" ref="A24:A87" si="1">A23+1</f>
         <v>2</v>
       </c>
@@ -8010,8 +8025,8 @@
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
     </row>
-    <row r="25" spans="1:23" ht="197.25">
-      <c r="A25" s="30">
+    <row r="25" spans="1:23" ht="193.2">
+      <c r="A25" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8044,8 +8059,8 @@
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
     </row>
-    <row r="26" spans="1:23" ht="33">
-      <c r="A26" s="30">
+    <row r="26" spans="1:23" ht="28.8">
+      <c r="A26" s="25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8078,8 +8093,8 @@
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
     </row>
-    <row r="27" spans="1:23" ht="33">
-      <c r="A27" s="30">
+    <row r="27" spans="1:23" ht="55.2">
+      <c r="A27" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8113,7 +8128,7 @@
       <c r="W27" s="21"/>
     </row>
     <row r="28" spans="1:23" ht="409.6" customHeight="1">
-      <c r="A28" s="30">
+      <c r="A28" s="25">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8147,7 +8162,7 @@
       <c r="W28" s="21"/>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1">
-      <c r="A29" s="30">
+      <c r="A29" s="25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -8180,8 +8195,8 @@
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
     </row>
-    <row r="30" spans="1:23" ht="67.5">
-      <c r="A30" s="30">
+    <row r="30" spans="1:23" ht="57.6">
+      <c r="A30" s="25">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -8214,8 +8229,8 @@
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
     </row>
-    <row r="31" spans="1:23" ht="33">
-      <c r="A31" s="30">
+    <row r="31" spans="1:23" ht="28.8">
+      <c r="A31" s="25">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -8248,8 +8263,8 @@
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
     </row>
-    <row r="32" spans="1:23" ht="100.5">
-      <c r="A32" s="30">
+    <row r="32" spans="1:23" ht="86.4">
+      <c r="A32" s="25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8282,8 +8297,8 @@
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
-      <c r="A33" s="30">
+    <row r="33" spans="1:23">
+      <c r="A33" s="25">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -8316,8 +8331,8 @@
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
-      <c r="A34" s="30">
+    <row r="34" spans="1:23">
+      <c r="A34" s="25">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -8350,8 +8365,8 @@
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
-      <c r="A35" s="30">
+    <row r="35" spans="1:23">
+      <c r="A35" s="25">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -8384,8 +8399,8 @@
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
-      <c r="A36" s="30">
+    <row r="36" spans="1:23">
+      <c r="A36" s="25">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -8418,8 +8433,8 @@
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
-      <c r="A37" s="30">
+    <row r="37" spans="1:23">
+      <c r="A37" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8452,8 +8467,8 @@
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
-      <c r="A38" s="30">
+    <row r="38" spans="1:23">
+      <c r="A38" s="25">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -8486,8 +8501,8 @@
       <c r="V38" s="21"/>
       <c r="W38" s="21"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
-      <c r="A39" s="30">
+    <row r="39" spans="1:23">
+      <c r="A39" s="25">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -8520,8 +8535,8 @@
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
-      <c r="A40" s="30">
+    <row r="40" spans="1:23">
+      <c r="A40" s="25">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -8554,8 +8569,8 @@
       <c r="V40" s="21"/>
       <c r="W40" s="21"/>
     </row>
-    <row r="41" spans="1:23" ht="33">
-      <c r="A41" s="30">
+    <row r="41" spans="1:23" ht="28.8">
+      <c r="A41" s="25">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -8588,8 +8603,8 @@
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
     </row>
-    <row r="42" spans="1:23" ht="33">
-      <c r="A42" s="30">
+    <row r="42" spans="1:23" ht="28.8">
+      <c r="A42" s="25">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8622,8 +8637,8 @@
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
     </row>
-    <row r="43" spans="1:23" ht="33">
-      <c r="A43" s="30">
+    <row r="43" spans="1:23" ht="28.8">
+      <c r="A43" s="25">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -8656,8 +8671,8 @@
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
     </row>
-    <row r="44" spans="1:23" ht="33">
-      <c r="A44" s="30">
+    <row r="44" spans="1:23" ht="28.8">
+      <c r="A44" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -8690,8 +8705,8 @@
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
     </row>
-    <row r="45" spans="1:23" ht="67.5">
-      <c r="A45" s="30">
+    <row r="45" spans="1:23" ht="57.6">
+      <c r="A45" s="25">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -8724,8 +8739,8 @@
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
     </row>
-    <row r="46" spans="1:23" ht="33">
-      <c r="A46" s="30">
+    <row r="46" spans="1:23" ht="28.8">
+      <c r="A46" s="25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -8758,8 +8773,8 @@
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
-      <c r="A47" s="30">
+    <row r="47" spans="1:23">
+      <c r="A47" s="25">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -8792,8 +8807,8 @@
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
-      <c r="A48" s="30">
+    <row r="48" spans="1:23">
+      <c r="A48" s="25">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -8826,8 +8841,8 @@
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
-      <c r="A49" s="30">
+    <row r="49" spans="1:23">
+      <c r="A49" s="25">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -8860,8 +8875,8 @@
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
-      <c r="A50" s="30">
+    <row r="50" spans="1:23">
+      <c r="A50" s="25">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -8894,8 +8909,8 @@
       <c r="V50" s="21"/>
       <c r="W50" s="21"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
-      <c r="A51" s="30">
+    <row r="51" spans="1:23">
+      <c r="A51" s="25">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -8928,8 +8943,8 @@
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
-      <c r="A52" s="30">
+    <row r="52" spans="1:23">
+      <c r="A52" s="25">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -8962,8 +8977,8 @@
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
-      <c r="A53" s="30">
+    <row r="53" spans="1:23">
+      <c r="A53" s="25">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -8996,8 +9011,8 @@
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
-      <c r="A54" s="30">
+    <row r="54" spans="1:23">
+      <c r="A54" s="25">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -9030,8 +9045,8 @@
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
-      <c r="A55" s="30">
+    <row r="55" spans="1:23">
+      <c r="A55" s="25">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -9064,8 +9079,8 @@
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
     </row>
-    <row r="56" spans="1:23" ht="234">
-      <c r="A56" s="30">
+    <row r="56" spans="1:23" ht="201.6">
+      <c r="A56" s="25">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -9098,8 +9113,8 @@
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
     </row>
-    <row r="57" spans="1:23" ht="100.5">
-      <c r="A57" s="30">
+    <row r="57" spans="1:23" ht="110.4">
+      <c r="A57" s="25">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -9132,8 +9147,8 @@
       <c r="V57" s="21"/>
       <c r="W57" s="21"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
-      <c r="A58" s="30">
+    <row r="58" spans="1:23">
+      <c r="A58" s="25">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -9166,8 +9181,8 @@
       <c r="V58" s="21"/>
       <c r="W58" s="21"/>
     </row>
-    <row r="59" spans="1:23" ht="66">
-      <c r="A59" s="30">
+    <row r="59" spans="1:23" ht="72">
+      <c r="A59" s="25">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -9201,7 +9216,7 @@
       <c r="W59" s="21"/>
     </row>
     <row r="60" spans="1:23" ht="15" customHeight="1">
-      <c r="A60" s="30">
+      <c r="A60" s="25">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -9234,8 +9249,8 @@
       <c r="V60" s="21"/>
       <c r="W60" s="21"/>
     </row>
-    <row r="61" spans="1:23" ht="33">
-      <c r="A61" s="30">
+    <row r="61" spans="1:23" ht="43.2">
+      <c r="A61" s="25">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -9269,7 +9284,7 @@
       <c r="W61" s="21"/>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1">
-      <c r="A62" s="30">
+      <c r="A62" s="25">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -9303,7 +9318,7 @@
       <c r="W62" s="21"/>
     </row>
     <row r="63" spans="1:23" ht="15" customHeight="1">
-      <c r="A63" s="30">
+      <c r="A63" s="25">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
@@ -9336,8 +9351,8 @@
       <c r="V63" s="21"/>
       <c r="W63" s="21"/>
     </row>
-    <row r="64" spans="1:23" ht="33">
-      <c r="A64" s="30">
+    <row r="64" spans="1:23" ht="43.2">
+      <c r="A64" s="25">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -9370,8 +9385,8 @@
       <c r="V64" s="21"/>
       <c r="W64" s="21"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
-      <c r="A65" s="30">
+    <row r="65" spans="1:23">
+      <c r="A65" s="25">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -9404,8 +9419,8 @@
       <c r="V65" s="21"/>
       <c r="W65" s="21"/>
     </row>
-    <row r="66" spans="1:23" ht="33">
-      <c r="A66" s="30">
+    <row r="66" spans="1:23" ht="28.8">
+      <c r="A66" s="25">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -9438,8 +9453,8 @@
       <c r="V66" s="21"/>
       <c r="W66" s="21"/>
     </row>
-    <row r="67" spans="1:23" ht="33">
-      <c r="A67" s="30">
+    <row r="67" spans="1:23" ht="28.8">
+      <c r="A67" s="25">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -9472,8 +9487,8 @@
       <c r="V67" s="21"/>
       <c r="W67" s="21"/>
     </row>
-    <row r="68" spans="1:23" ht="33">
-      <c r="A68" s="30">
+    <row r="68" spans="1:23" ht="28.8">
+      <c r="A68" s="25">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
@@ -9506,8 +9521,8 @@
       <c r="V68" s="21"/>
       <c r="W68" s="21"/>
     </row>
-    <row r="69" spans="1:23" ht="33">
-      <c r="A69" s="30">
+    <row r="69" spans="1:23" ht="28.8">
+      <c r="A69" s="25">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
@@ -9540,8 +9555,8 @@
       <c r="V69" s="21"/>
       <c r="W69" s="21"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
-      <c r="A70" s="30">
+    <row r="70" spans="1:23">
+      <c r="A70" s="25">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -9574,8 +9589,8 @@
       <c r="V70" s="21"/>
       <c r="W70" s="21"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
-      <c r="A71" s="30">
+    <row r="71" spans="1:23" ht="28.8">
+      <c r="A71" s="25">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
@@ -9609,7 +9624,7 @@
       <c r="W71" s="21"/>
     </row>
     <row r="72" spans="1:23" ht="15" customHeight="1">
-      <c r="A72" s="30">
+      <c r="A72" s="25">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -9642,8 +9657,8 @@
       <c r="V72" s="21"/>
       <c r="W72" s="21"/>
     </row>
-    <row r="73" spans="1:23" ht="33">
-      <c r="A73" s="30">
+    <row r="73" spans="1:23" ht="28.8">
+      <c r="A73" s="25">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -9676,8 +9691,8 @@
       <c r="V73" s="21"/>
       <c r="W73" s="21"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
-      <c r="A74" s="30">
+    <row r="74" spans="1:23">
+      <c r="A74" s="25">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -9710,8 +9725,8 @@
       <c r="V74" s="21"/>
       <c r="W74" s="21"/>
     </row>
-    <row r="75" spans="1:23" ht="76.5">
-      <c r="A75" s="30">
+    <row r="75" spans="1:23" ht="72">
+      <c r="A75" s="25">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -9745,7 +9760,7 @@
       <c r="W75" s="21"/>
     </row>
     <row r="76" spans="1:23" ht="409.6" customHeight="1">
-      <c r="A76" s="30">
+      <c r="A76" s="25">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -9778,8 +9793,8 @@
       <c r="V76" s="21"/>
       <c r="W76" s="21"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
-      <c r="A77" s="30">
+    <row r="77" spans="1:23" ht="28.8">
+      <c r="A77" s="25">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -9813,7 +9828,7 @@
       <c r="W77" s="21"/>
     </row>
     <row r="78" spans="1:23" ht="15" customHeight="1">
-      <c r="A78" s="30">
+      <c r="A78" s="25">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
@@ -9847,7 +9862,7 @@
       <c r="W78" s="21"/>
     </row>
     <row r="79" spans="1:23" ht="15" customHeight="1">
-      <c r="A79" s="30">
+      <c r="A79" s="25">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
@@ -9880,8 +9895,8 @@
       <c r="V79" s="21"/>
       <c r="W79" s="21"/>
     </row>
-    <row r="80" spans="1:23" ht="33">
-      <c r="A80" s="30">
+    <row r="80" spans="1:23" ht="43.2">
+      <c r="A80" s="25">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
@@ -9914,8 +9929,8 @@
       <c r="V80" s="21"/>
       <c r="W80" s="21"/>
     </row>
-    <row r="81" spans="1:23" ht="132">
-      <c r="A81" s="30">
+    <row r="81" spans="1:23" ht="165.6">
+      <c r="A81" s="25">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
@@ -9949,7 +9964,7 @@
       <c r="W81" s="21"/>
     </row>
     <row r="82" spans="1:23" ht="15" customHeight="1">
-      <c r="A82" s="30">
+      <c r="A82" s="25">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -9983,7 +9998,7 @@
       <c r="W82" s="21"/>
     </row>
     <row r="83" spans="1:23" ht="15" customHeight="1">
-      <c r="A83" s="30">
+      <c r="A83" s="25">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
@@ -10017,7 +10032,7 @@
       <c r="W83" s="21"/>
     </row>
     <row r="84" spans="1:23" ht="15" customHeight="1">
-      <c r="A84" s="30">
+      <c r="A84" s="25">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
@@ -10051,7 +10066,7 @@
       <c r="W84" s="21"/>
     </row>
     <row r="85" spans="1:23" ht="15" customHeight="1">
-      <c r="A85" s="30">
+      <c r="A85" s="25">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
@@ -10085,7 +10100,7 @@
       <c r="W85" s="21"/>
     </row>
     <row r="86" spans="1:23" ht="15" customHeight="1">
-      <c r="A86" s="30">
+      <c r="A86" s="25">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
@@ -10119,7 +10134,7 @@
       <c r="W86" s="21"/>
     </row>
     <row r="87" spans="1:23" ht="15" customHeight="1">
-      <c r="A87" s="30">
+      <c r="A87" s="25">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -10153,7 +10168,7 @@
       <c r="W87" s="21"/>
     </row>
     <row r="88" spans="1:23" ht="15" customHeight="1">
-      <c r="A88" s="30">
+      <c r="A88" s="25">
         <f t="shared" ref="A88:A92" si="2">A87+1</f>
         <v>66</v>
       </c>
@@ -10187,7 +10202,7 @@
       <c r="W88" s="21"/>
     </row>
     <row r="89" spans="1:23" ht="15" customHeight="1">
-      <c r="A89" s="30">
+      <c r="A89" s="25">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
@@ -10221,7 +10236,7 @@
       <c r="W89" s="21"/>
     </row>
     <row r="90" spans="1:23" ht="15" customHeight="1">
-      <c r="A90" s="30">
+      <c r="A90" s="25">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
@@ -10255,7 +10270,7 @@
       <c r="W90" s="21"/>
     </row>
     <row r="91" spans="1:23" ht="15" customHeight="1">
-      <c r="A91" s="30">
+      <c r="A91" s="25">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -10289,7 +10304,7 @@
       <c r="W91" s="21"/>
     </row>
     <row r="92" spans="1:23" ht="15" customHeight="1">
-      <c r="A92" s="30">
+      <c r="A92" s="25">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -10323,12 +10338,12 @@
       <c r="W92" s="21"/>
     </row>
     <row r="93" spans="1:23" ht="15" customHeight="1">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="32"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
@@ -10350,7 +10365,7 @@
       <c r="W93" s="21"/>
     </row>
     <row r="94" spans="1:23" ht="15" customHeight="1">
-      <c r="A94" s="30">
+      <c r="A94" s="25">
         <v>1</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -10383,7 +10398,7 @@
       <c r="W94" s="21"/>
     </row>
     <row r="95" spans="1:23" ht="15" customHeight="1">
-      <c r="A95" s="30">
+      <c r="A95" s="25">
         <f t="shared" ref="A95:A142" si="3">A94+1</f>
         <v>2</v>
       </c>
@@ -10417,7 +10432,7 @@
       <c r="W95" s="21"/>
     </row>
     <row r="96" spans="1:23" ht="15" customHeight="1">
-      <c r="A96" s="33">
+      <c r="A96" s="27">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -10451,7 +10466,7 @@
       <c r="W96" s="21"/>
     </row>
     <row r="97" spans="1:23" ht="15" customHeight="1">
-      <c r="A97" s="33">
+      <c r="A97" s="27">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -10485,7 +10500,7 @@
       <c r="W97" s="21"/>
     </row>
     <row r="98" spans="1:23" ht="15" customHeight="1">
-      <c r="A98" s="33">
+      <c r="A98" s="27">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -10519,7 +10534,7 @@
       <c r="W98" s="21"/>
     </row>
     <row r="99" spans="1:23" ht="15" customHeight="1">
-      <c r="A99" s="33">
+      <c r="A99" s="27">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -10553,7 +10568,7 @@
       <c r="W99" s="21"/>
     </row>
     <row r="100" spans="1:23" ht="15" customHeight="1">
-      <c r="A100" s="33">
+      <c r="A100" s="27">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -10587,7 +10602,7 @@
       <c r="W100" s="21"/>
     </row>
     <row r="101" spans="1:23" ht="15" customHeight="1">
-      <c r="A101" s="33">
+      <c r="A101" s="27">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -10621,7 +10636,7 @@
       <c r="W101" s="21"/>
     </row>
     <row r="102" spans="1:23" ht="15" customHeight="1">
-      <c r="A102" s="33">
+      <c r="A102" s="27">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -10655,7 +10670,7 @@
       <c r="W102" s="21"/>
     </row>
     <row r="103" spans="1:23" ht="15" customHeight="1">
-      <c r="A103" s="33">
+      <c r="A103" s="27">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -10689,7 +10704,7 @@
       <c r="W103" s="21"/>
     </row>
     <row r="104" spans="1:23" ht="15" customHeight="1">
-      <c r="A104" s="30">
+      <c r="A104" s="25">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -10723,7 +10738,7 @@
       <c r="W104" s="21"/>
     </row>
     <row r="105" spans="1:23" ht="15" customHeight="1">
-      <c r="A105" s="30">
+      <c r="A105" s="25">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -10757,7 +10772,7 @@
       <c r="W105" s="21"/>
     </row>
     <row r="106" spans="1:23" ht="15" customHeight="1">
-      <c r="A106" s="30">
+      <c r="A106" s="25">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -10791,7 +10806,7 @@
       <c r="W106" s="21"/>
     </row>
     <row r="107" spans="1:23" ht="15" customHeight="1">
-      <c r="A107" s="30">
+      <c r="A107" s="25">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -10825,7 +10840,7 @@
       <c r="W107" s="21"/>
     </row>
     <row r="108" spans="1:23" ht="15" customHeight="1">
-      <c r="A108" s="30">
+      <c r="A108" s="25">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -10859,7 +10874,7 @@
       <c r="W108" s="21"/>
     </row>
     <row r="109" spans="1:23" ht="15" customHeight="1">
-      <c r="A109" s="30">
+      <c r="A109" s="25">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -10893,7 +10908,7 @@
       <c r="W109" s="21"/>
     </row>
     <row r="110" spans="1:23" ht="15" customHeight="1">
-      <c r="A110" s="30">
+      <c r="A110" s="25">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -10927,7 +10942,7 @@
       <c r="W110" s="21"/>
     </row>
     <row r="111" spans="1:23" ht="15" customHeight="1">
-      <c r="A111" s="30">
+      <c r="A111" s="25">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -10961,7 +10976,7 @@
       <c r="W111" s="21"/>
     </row>
     <row r="112" spans="1:23" ht="15" customHeight="1">
-      <c r="A112" s="30">
+      <c r="A112" s="25">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -10995,7 +11010,7 @@
       <c r="W112" s="21"/>
     </row>
     <row r="113" spans="1:23" ht="15" customHeight="1">
-      <c r="A113" s="30">
+      <c r="A113" s="25">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -11029,7 +11044,7 @@
       <c r="W113" s="21"/>
     </row>
     <row r="114" spans="1:23" ht="15" customHeight="1">
-      <c r="A114" s="30">
+      <c r="A114" s="25">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -11063,7 +11078,7 @@
       <c r="W114" s="21"/>
     </row>
     <row r="115" spans="1:23" ht="15" customHeight="1">
-      <c r="A115" s="30">
+      <c r="A115" s="25">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -11097,7 +11112,7 @@
       <c r="W115" s="21"/>
     </row>
     <row r="116" spans="1:23" ht="15" customHeight="1">
-      <c r="A116" s="30">
+      <c r="A116" s="25">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -11131,7 +11146,7 @@
       <c r="W116" s="21"/>
     </row>
     <row r="117" spans="1:23" ht="15" customHeight="1">
-      <c r="A117" s="30">
+      <c r="A117" s="25">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -11165,7 +11180,7 @@
       <c r="W117" s="21"/>
     </row>
     <row r="118" spans="1:23" ht="15" customHeight="1">
-      <c r="A118" s="30">
+      <c r="A118" s="25">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -11199,7 +11214,7 @@
       <c r="W118" s="21"/>
     </row>
     <row r="119" spans="1:23" ht="15" customHeight="1">
-      <c r="A119" s="30">
+      <c r="A119" s="25">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -11233,7 +11248,7 @@
       <c r="W119" s="21"/>
     </row>
     <row r="120" spans="1:23" ht="15" customHeight="1">
-      <c r="A120" s="30">
+      <c r="A120" s="25">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -11267,7 +11282,7 @@
       <c r="W120" s="21"/>
     </row>
     <row r="121" spans="1:23" ht="15" customHeight="1">
-      <c r="A121" s="30">
+      <c r="A121" s="25">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -11301,7 +11316,7 @@
       <c r="W121" s="21"/>
     </row>
     <row r="122" spans="1:23" ht="15" customHeight="1">
-      <c r="A122" s="30">
+      <c r="A122" s="25">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -11335,7 +11350,7 @@
       <c r="W122" s="21"/>
     </row>
     <row r="123" spans="1:23" ht="15" customHeight="1">
-      <c r="A123" s="30">
+      <c r="A123" s="25">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -11369,7 +11384,7 @@
       <c r="W123" s="21"/>
     </row>
     <row r="124" spans="1:23" ht="15" customHeight="1">
-      <c r="A124" s="30">
+      <c r="A124" s="25">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -11403,7 +11418,7 @@
       <c r="W124" s="21"/>
     </row>
     <row r="125" spans="1:23" ht="15" customHeight="1">
-      <c r="A125" s="30">
+      <c r="A125" s="25">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -11437,7 +11452,7 @@
       <c r="W125" s="21"/>
     </row>
     <row r="126" spans="1:23" ht="15" customHeight="1">
-      <c r="A126" s="30">
+      <c r="A126" s="25">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -11471,7 +11486,7 @@
       <c r="W126" s="21"/>
     </row>
     <row r="127" spans="1:23" ht="15" customHeight="1">
-      <c r="A127" s="30">
+      <c r="A127" s="25">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -11505,7 +11520,7 @@
       <c r="W127" s="21"/>
     </row>
     <row r="128" spans="1:23" ht="15" customHeight="1">
-      <c r="A128" s="30">
+      <c r="A128" s="25">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -11539,7 +11554,7 @@
       <c r="W128" s="21"/>
     </row>
     <row r="129" spans="1:23" ht="15" customHeight="1">
-      <c r="A129" s="30">
+      <c r="A129" s="25">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -11573,7 +11588,7 @@
       <c r="W129" s="21"/>
     </row>
     <row r="130" spans="1:23" ht="15" customHeight="1">
-      <c r="A130" s="30">
+      <c r="A130" s="25">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -11607,7 +11622,7 @@
       <c r="W130" s="21"/>
     </row>
     <row r="131" spans="1:23" ht="15" customHeight="1">
-      <c r="A131" s="30">
+      <c r="A131" s="25">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
@@ -11641,7 +11656,7 @@
       <c r="W131" s="21"/>
     </row>
     <row r="132" spans="1:23" ht="15" customHeight="1">
-      <c r="A132" s="30">
+      <c r="A132" s="25">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -11675,7 +11690,7 @@
       <c r="W132" s="21"/>
     </row>
     <row r="133" spans="1:23" ht="15" customHeight="1">
-      <c r="A133" s="30">
+      <c r="A133" s="25">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -11709,7 +11724,7 @@
       <c r="W133" s="21"/>
     </row>
     <row r="134" spans="1:23" ht="15" customHeight="1">
-      <c r="A134" s="30">
+      <c r="A134" s="25">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
@@ -11743,7 +11758,7 @@
       <c r="W134" s="21"/>
     </row>
     <row r="135" spans="1:23" ht="15" customHeight="1">
-      <c r="A135" s="30">
+      <c r="A135" s="25">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -11777,7 +11792,7 @@
       <c r="W135" s="21"/>
     </row>
     <row r="136" spans="1:23" ht="15" customHeight="1">
-      <c r="A136" s="30">
+      <c r="A136" s="25">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
@@ -11811,7 +11826,7 @@
       <c r="W136" s="21"/>
     </row>
     <row r="137" spans="1:23" ht="15" customHeight="1">
-      <c r="A137" s="30">
+      <c r="A137" s="25">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -11845,7 +11860,7 @@
       <c r="W137" s="21"/>
     </row>
     <row r="138" spans="1:23" ht="15" customHeight="1">
-      <c r="A138" s="30">
+      <c r="A138" s="25">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
@@ -11879,7 +11894,7 @@
       <c r="W138" s="21"/>
     </row>
     <row r="139" spans="1:23" ht="409.6" customHeight="1">
-      <c r="A139" s="30">
+      <c r="A139" s="25">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
@@ -11913,7 +11928,7 @@
       <c r="W139" s="21"/>
     </row>
     <row r="140" spans="1:23" ht="15" customHeight="1">
-      <c r="A140" s="30">
+      <c r="A140" s="25">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
@@ -11947,7 +11962,7 @@
       <c r="W140" s="21"/>
     </row>
     <row r="141" spans="1:23" ht="15" customHeight="1">
-      <c r="A141" s="30">
+      <c r="A141" s="25">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -11981,7 +11996,7 @@
       <c r="W141" s="21"/>
     </row>
     <row r="142" spans="1:23" ht="15" customHeight="1">
-      <c r="A142" s="30">
+      <c r="A142" s="25">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
@@ -12015,12 +12030,12 @@
       <c r="W142" s="21"/>
     </row>
     <row r="143" spans="1:23" ht="15" customHeight="1">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B143" s="27"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="32"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="26"/>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
@@ -12042,7 +12057,7 @@
       <c r="W143" s="21"/>
     </row>
     <row r="144" spans="1:23" ht="15" customHeight="1">
-      <c r="A144" s="30">
+      <c r="A144" s="25">
         <v>1</v>
       </c>
       <c r="B144" s="10" t="s">
@@ -12075,7 +12090,7 @@
       <c r="W144" s="21"/>
     </row>
     <row r="145" spans="1:23" ht="15" customHeight="1">
-      <c r="A145" s="30">
+      <c r="A145" s="25">
         <f t="shared" ref="A145:A146" si="4">A144+1</f>
         <v>2</v>
       </c>
@@ -12109,7 +12124,7 @@
       <c r="W145" s="21"/>
     </row>
     <row r="146" spans="1:23" ht="15" customHeight="1">
-      <c r="A146" s="30">
+      <c r="A146" s="25">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -12143,12 +12158,12 @@
       <c r="W146" s="21"/>
     </row>
     <row r="147" spans="1:23" ht="15" customHeight="1">
-      <c r="A147" s="31" t="s">
+      <c r="A147" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B147" s="27"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="32"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="26"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
@@ -12170,7 +12185,7 @@
       <c r="W147" s="21"/>
     </row>
     <row r="148" spans="1:23" ht="15" customHeight="1">
-      <c r="A148" s="30">
+      <c r="A148" s="25">
         <v>1</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -12203,7 +12218,7 @@
       <c r="W148" s="21"/>
     </row>
     <row r="149" spans="1:23" ht="15" customHeight="1">
-      <c r="A149" s="30">
+      <c r="A149" s="25">
         <f t="shared" ref="A149:A153" si="5">A148+1</f>
         <v>2</v>
       </c>
@@ -12237,7 +12252,7 @@
       <c r="W149" s="21"/>
     </row>
     <row r="150" spans="1:23" ht="337.5" customHeight="1">
-      <c r="A150" s="30">
+      <c r="A150" s="25">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -12271,7 +12286,7 @@
       <c r="W150" s="21"/>
     </row>
     <row r="151" spans="1:23" ht="409.6" customHeight="1">
-      <c r="A151" s="30">
+      <c r="A151" s="25">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -12305,7 +12320,7 @@
       <c r="W151" s="21"/>
     </row>
     <row r="152" spans="1:23" ht="15" customHeight="1">
-      <c r="A152" s="30">
+      <c r="A152" s="25">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -12339,7 +12354,7 @@
       <c r="W152" s="21"/>
     </row>
     <row r="153" spans="1:23" ht="15" customHeight="1">
-      <c r="A153" s="30">
+      <c r="A153" s="25">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -12373,12 +12388,12 @@
       <c r="W153" s="21"/>
     </row>
     <row r="154" spans="1:23" ht="15" customHeight="1">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B154" s="27"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="32"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="26"/>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
@@ -12400,7 +12415,7 @@
       <c r="W154" s="21"/>
     </row>
     <row r="155" spans="1:23" ht="15" customHeight="1">
-      <c r="A155" s="30">
+      <c r="A155" s="25">
         <v>1</v>
       </c>
       <c r="B155" s="10" t="s">
@@ -12433,7 +12448,7 @@
       <c r="W155" s="21"/>
     </row>
     <row r="156" spans="1:23" ht="15" customHeight="1">
-      <c r="A156" s="30">
+      <c r="A156" s="25">
         <f t="shared" ref="A156:A157" si="6">A155+1</f>
         <v>2</v>
       </c>
@@ -12467,7 +12482,7 @@
       <c r="W156" s="21"/>
     </row>
     <row r="157" spans="1:23" ht="294.75" customHeight="1">
-      <c r="A157" s="30">
+      <c r="A157" s="25">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
